--- a/uploads/Employee Reports.xlsx
+++ b/uploads/Employee Reports.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\trainingcoverage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CA4627-51F7-431A-8014-D6F1B6793262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B1361B-E049-4E05-B18D-AA3F5EA9CB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A4D7503A-3666-4DDD-8602-29F3BCAE2D90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">                 PT GREAT GIANT PINEAPPLE</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Kredit Hours</t>
+  </si>
+  <si>
+    <t>Trainers</t>
+  </si>
+  <si>
+    <t>Lembaga</t>
   </si>
 </sst>
 </file>
@@ -192,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -202,11 +211,11 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -215,7 +224,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -223,17 +232,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -243,7 +252,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -254,58 +263,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -314,9 +272,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -327,22 +283,22 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,7 +311,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -363,10 +319,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -374,8 +332,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -388,12 +354,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -403,18 +364,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,39 +373,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,6 +448,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0B0464"/>
+      <color rgb="FF000066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -936,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BDF1F9-1293-404E-B1E8-921D56B9FBE2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,188 +917,216 @@
     <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="30" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="14" t="str">
         <f>": "</f>
         <v xml:space="preserve">: </v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17" t="str">
-        <f t="shared" ref="C8:C10" si="0">": "</f>
+      <c r="C8" s="14" t="str">
+        <f t="shared" ref="C8:C9" si="0">": "</f>
         <v xml:space="preserve">: </v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">: </v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="14" t="str">
         <f>": "</f>
         <v xml:space="preserve">: </v>
       </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="8" t="s">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17" t="str">
-        <f t="shared" ref="C11:C12" si="1">": "</f>
+      <c r="C11" s="18" t="str">
+        <f t="shared" ref="C11" si="1">": "</f>
         <v xml:space="preserve">: </v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="H13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="I13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
